--- a/result/0-shot/Baichuan-13B/response/stratification/response.xlsx
+++ b/result/0-shot/Baichuan-13B/response/stratification/response.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>CoT</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,18 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+- 年龄：年龄越大，风险越高。
+- 血压水平：收缩压和/或舒张压越高，风险越高。
+- 血脂异常：总胆固醇、低密度脂蛋白胆固醇（LDL-C）、甘油三酯升高，或高密度脂蛋白胆固醇（HDL-C）降低，风险越高。
+- 糖尿病：有糖尿病者，风险较高。
+- 吸烟：吸烟者，风险较高。
+- 肥胖：BMI≥28 kg/m²，风险较高。
+- 家族史：有家族性高血压或心血管疾病史，风险较高。
+- 缺乏体力活动：缺乏体力活动者，风险较高。
+根据患者描述，患者年龄为50岁，收缩压为140 mmHg，舒张压为90 mmHg，无其他危险因素记录。因此，根据《中国高血压防治指南2018》，该患者的危险因素属于中危。
+所以，正确的答案是：
+（B）中危</t>
         </is>
       </c>
     </row>
@@ -559,7 +570,10 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>（B）低危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、血压水平、其他危险因素（如糖尿病、血脂异常、吸烟、肥胖等）以及患者的并发症情况。
+对于这位50岁的患者，其收缩压（SBP）为140 mmHg，舒张压（DBP）为90 mmHg，属于1级高血压（轻度）。由于患者没有其他心血管疾病的危险因素，如糖尿病、血脂异常、吸烟、肥胖等，也没有其他并发症记录，因此可以初步判断为心血管疾病的低危层。
+综上所述，根据患者的描述，该患者的心血管疾病危险因素分层为：
+（B）低危</t>
         </is>
       </c>
     </row>
@@ -607,7 +621,9 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压水平、是否合并其他心血管疾病危险因素以及是否存在其他并发症等因素。
+根据患者描述，患者为50岁，收缩压（SBP）为150 mmHg，舒张压（DBP）为90 mmHg，属于高血压范畴。由于患者没有合并其他心血管疾病危险因素（如糖尿病、高脂血症、吸烟、肥胖等），也没有其他并发症（如冠心病、脑血管疾病等），因此可以初步判断为心血管疾病的低危风险。
+因此，根据上述分析，该患者的心血管疾病危险因素分层是（A）低危。</t>
         </is>
       </c>
     </row>
@@ -657,7 +673,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑的是患者的血压水平、其他相关危险因素以及并发症情况。
+对于这位50岁的患者，其收缩压（SBP）为150 mmHg，舒张压（DBP）为90 mmHg，属于高血压范畴，并且已经超过了1级高血压（即轻度高血压）的标准（SBP 140-159 mmHg 或 DBP 90-99 mmHg）。
+此外，患者没有吸烟或饮酒史，无家族史，无手术史，无既往病史记录，因此没有其他的传统心血管疾病危险因素，如糖尿病、高脂血症、肥胖等。
+在肾功能方面，患者的肾小球滤过率（GFR）为100 ml/min*1.73/m²，血肌酐为60 μmol/L，这些指标在正常范围内，说明肾脏功能没有受到严重损害。
+综上所述，这位患者虽然存在高血压这一危险因素，但其他心血管疾病危险因素较少，且没有明显的并发症，因此可以将其归为心血管疾病的低危层。
+所以，根据上述分析，该患者的危险因素分层为：
+（A）低危</t>
         </is>
       </c>
     </row>
@@ -707,7 +729,10 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、血压、血脂、血糖、体重指数、是否吸烟以及是否有心血管疾病家族史等因素。
+在本例中，患者为52岁男性，收缩压（SBP）150 mmHg，舒张压（DBP）91 mmHg，属于高血压范畴；心率70 bpm正常；血钾浓度为6.0 mmol/L，血肌酐为70 μmol/L，均正常；无吸烟或饮酒史；无家族病史记录。
+根据这些因素，该患者属于高危组。因此，正确的答案是：
+（B）高危</t>
         </is>
       </c>
     </row>
@@ -757,7 +782,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、吸烟、肥胖、家族史等因素。
+对于这位52岁的男性患者，他的血压为150/91 mmHg，属于高血压2级（高度），根据指南，这通常被归类为高危。此外，患者没有其他心血管疾病的明确危险因素，如糖尿病、高脂血症、吸烟、肥胖等。
+因此，根据患者的年龄、血压水平以及缺乏其他心血管疾病的风险因素，我们可以初步判断该患者的心血管疾病危险因素分层为“高危”。
+选项：
+（A）高危</t>
         </is>
       </c>
     </row>
@@ -807,7 +836,9 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>（A）中危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压、血脂、血糖、体重指数（BMI）、年龄、性别、家族史以及是否存在其他心血管疾病的风险因素。
+在本例中，患者为53岁男性，收缩压（SBP）153 mmHg，舒张压（DBP）92 mmHg，属于高血压范畴；心率46 bpm，在正常范围内；实验室检查显示血钾浓度为4.0 mmol/L，血肌酐为70 μmol/L，均处于正常范围；药物治疗史显示已采取生活方式干预；既往史、手术史、个人史及家族史均无记录。
+根据上述信息，该患者的心血管疾病危险因素分层可能为“低危”。然而，由于缺乏详细的生活方式、血脂、血糖、体重指数（BMI）等数据，无法准确进行风险分层。建议进一步收集相关信息以进行更准确的评估。</t>
         </is>
       </c>
     </row>
@@ -857,7 +888,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+- 年龄：年龄越大，风险越高。
+- 血压：收缩压和/或舒张压高于正常范围。
+- 血脂异常：如总胆固醇、低密度脂蛋白胆固醇升高，高密度脂蛋白胆固醇降低等。
+- 糖尿病：血糖水平异常。
+- 吸烟：有吸烟习惯。
+- 肥胖：体重指数（BMI）超过28 kg/m²。
+- 家族史：有心血管疾病家族史。
+- 其他：如高血压、糖尿病、高血脂、吸烟、肥胖、家族史等。
+根据患者描述，患者为53岁男性，收缩压153 mmHg，舒张压92 mmHg，心率70 bpm，无既往病史记录，无手术史记录，有吸烟记录，无家族病史记录。
+根据上述信息，该患者属于高血压，且存在吸烟这一危险因素。虽然患者没有明确的其他心血管疾病危险因素，但考虑到其收缩压较高，且吸烟是已知的心血管疾病危险因素，可以初步判断该患者的心血管疾病风险可能属于中危到高危之间。
+因此，根据患者描述，最符合的选项可能是：
+（D）中危</t>
         </is>
       </c>
     </row>
@@ -907,7 +950,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>（A）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、性别、血压水平、血脂水平、血糖水平和是否存在其他心血管危险因素。
+对于这位52岁的男性患者，他的收缩压为148 mmHg，属于高血压范畴，且已经采取了生活方式干预，说明他的血压控制情况可能并不理想。他的舒张压为95 mmHg，属于高血压2级。
+他的LDL-C浓度为4.0 mmol/L，高于正常范围，属于高胆固醇血症。
+根据这些因素，我们可以初步判断该患者的心血管疾病危险因素属于中危。
+因此，正确答案是（D）中危。</t>
         </is>
       </c>
     </row>
@@ -957,7 +1004,18 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 年龄：男性≥55岁，女性≥65岁。
+2. 血压：收缩压≥160 mmHg 和/或 舒张压≥100 mmHg。
+3. 血脂：低密度脂蛋白胆固醇（LDL-C）≥4.9 mmol/L。
+4. 糖尿病：空腹血糖≥7.0 mmol/L。
+5. 吸烟：目前吸烟者。
+6. 肥胖：腰围男性≥90 cm，女性≥85 cm。
+7. 家族史：一级亲属中有早发心血管疾病史。
+8. 其他：如高血压、高血脂、糖尿病等。
+根据患者描述，该患者年龄54岁，收缩压153 mmHg，舒张压95 mmHg，心率70 bpm，腰围95 cm，LDL-C为4.0 mmol/L。虽然患者有血脂异常，但无其他危险因素，如高血压、糖尿病、吸烟、肥胖等。因此，根据上述危险因素分层标准，该患者应属于低危层。
+所以，正确答案是：
+（D）低危</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1065,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据的是患者的血压水平、其他心血管危险因素的数量以及是否存在靶器官损害。
+根据患者描述的信息：
+- 年龄：54岁，属于中年人群，是心血管疾病的高发年龄段。
+- 血压：收缩压145 mmHg，舒张压93 mmHg，属于高血压2级（高度高血压）。
+- 心电图：Sokolow-Lyon电压为4.3 mV，这个值没有明确说明是否正常，但通常Sokolow-Lyon电压小于3 mV可能提示左室肥厚，这是一个心血管疾病的危险因素。
+- 其他心血管危险因素：患者描述中没有提到其他如糖尿病、高血脂、吸烟、肥胖等心血管危险因素。
+- 靶器官损害：患者描述中没有提到是否有靶器官损害，例如肾脏疾病、心脏疾病等。
+根据这些信息，我们可以初步判断该患者的心血管疾病危险因素分层为“中危”。这是因为虽然患者的血压较高，但缺乏其他心血管危险因素和靶器官损害的证据。然而，由于心电图结果的不确定性，这个判断可能需要进一步的评估。</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1122,18 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、其他心血管危险因素以及并发症情况。
+患者信息：患者为53岁男性。
+体格检查：收缩压（SBP）153 mmHg，舒张压（DBP）92 mmHg。心率70 bpm。
+辅助检查：实验室检查显示血钾浓度为4.0 mmol/L，血肌酐为70 μmol/L。心电图显示Sokolow-Lyon电压为4.3 mV。
+药物治疗史：已采取生活方式干预。
+既往史：无既往病史记录。
+手术史：无手术史记录。
+个人史：无吸烟或饮酒史记录。
+家族史：无家族病史记录。
+根据上述信息，患者有高血压（SBP 153 mmHg），心电图显示Sokolow-Lyon电压为4.3 mV，提示左室肥厚，这是高血压常见的并发症之一。血钾正常，血肌酐在正常范围内，没有糖尿病等其它心血管危险因素。
+因此，根据《中国高血压防治指南2018》，该患者的危险因素分层可能属于“高危”。
+所以，根据患者的描述，初步的答案是（C）高危。</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1183,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 年龄：年龄越大，风险越高。
+2. 血压：收缩压和/或舒张压高于正常范围。
+3. 血脂：总胆固醇、低密度脂蛋白胆固醇（LDL-C）、甘油三酯水平升高；高密度脂蛋白胆固醇（HDL-C）水平降低。
+4. 血糖：空腹血糖或糖化血红蛋白（HbA1c）水平升高。
+5. 体重指数（BMI）：BMI≥28 kg/m²。
+6. 吸烟：目前吸烟者。
+7. 饮酒：每日饮酒量男性≥14单位，女性≥7单位。
+8. 家族史：有心血管疾病家族史。
+9. 性别：男性。
+10. 其他：如高血压、糖尿病、高脂血症、肥胖症等。
+根据患者描述的信息，该患者的年龄为55岁，收缩压为148 mmHg，舒张压为94 mmHg，心率70 bpm，血钾4.0 mmol/L，血肌酐70 μmol/L，颈动脉内中膜厚度（IMT）为1.2 mm，无药物治疗史，无既往病史，无手术史，无吸烟或饮酒史，无家族病史。
+根据上述信息，该患者属于高危。因此，正确答案是（B）高危。</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1243,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>（A）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、体重指数（BMI）、是否吸烟及是否有心血管疾病家族史等因素。
+对于这位55岁的男性患者，他的收缩压（SBP）为148 mmHg，超过了140 mmHg的标准，属于高血压范畴。同时，他存在颈动脉粥样硬化这一心血管疾病的风险因素。
+根据上述信息，我们可以初步判断该患者的心血管疾病危险因素分层为“高危”。
+因此，正确答案是：
+（A）高危</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1297,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、性别、血压水平、是否合并其他心血管疾病危险因素以及是否存在其他并发症等因素。
+根据患者描述的信息，我们可以进行以下分析：
+- 患者年龄为56岁，属于中年人群，属于心血管疾病的高发年龄段；
+- 患者的收缩压（SBP）为157 mmHg，舒张压（DBP）为93 mmHg，属于高血压范畴，并且属于2级高血压（根据2018年指南，SBP≥160 mmHg或DBP≥100 mmHg为3级高血压，140-159 mmHg为2级高血压，130-139 mmHg为1级高血压，&lt;130 mmHg为正常血压）；
+- 患者的心率为50 bpm，属于正常范围；
+- 患者的BMI为30.0 kg/m^2，属于超重范围，属于心血管疾病的高危因素之一；
+- 患者的血钾浓度为4.0 mmol/L，属于正常范围；
+- 患者的血肌酐为70 μmol/L，属于正常范围；
+- 患者的心电图显示Sokolow-Lyon电压为4.3 mV，属于正常范围；
+- 患者有吸烟记录，属于心血管疾病的高危因素之一；
+- 患者无其他心血管疾病危险因素记录，如糖尿病、血脂异常等；
+- 患者无其他并发症记录，如心肌梗死、心力衰竭等。
+综合以上分析，该患者属于高血压2级，伴有超重和吸烟等不良生活习惯，但无其他心血管疾病危险因素和并发症，因此根据《中国高血压防治指南2018》，该患者的心血管疾病危险因素分层应为中危。</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1359,13 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>（A）中危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、体重指数（BMI）、是否吸烟及是否有心血管疾病家族史等因素。
+根据患者描述，患者为56岁女性，收缩压（SBP）149 mmHg，舒张压（DBP）93 mmHg，属于高血压范畴；心率为70 bpm，正常范围；实验室检查显示血钾浓度为4.0 mmol/L，正常范围；血肌酐为110 μmol/L，正常范围；24小时白蛋白尿为10 mg，正常范围。
+患者没有提供关于血脂、血糖、体重指数（BMI）、是否吸烟以及是否有心血管疾病家族史的信息，因此无法进行更详细的风险分层。
+然而，根据患者的高血压情况，我们可以初步判断其属于高血压病，并且由于缺乏其他相关危险因素的信息，我们无法确定其具体的风险分层。
+根据上述信息，如果必须选择一个选项，我们可以选择：
+（B）低危
+这个选择是基于患者年龄和血压情况做出的假设性判断，因为缺乏其他关键信息。在实际临床工作中，医生会根据患者提供的所有相关信息进行全面评估，以确定准确的风险分层。</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1415,30 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>（A）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 年龄：年龄越大，风险越高。
+2. 血压：收缩压和/或舒张压高于正常范围。
+3. 血脂：总胆固醇、低密度脂蛋白胆固醇、甘油三酯水平升高。
+4. 血糖：空腹血糖或糖化血红蛋白水平升高。
+5. 体重指数（BMI）：BMI大于24 kg/m²。
+6. 吸烟：有吸烟史。
+7. 家族史：有家族性高血压、糖尿病、高脂血症等病史。
+8. 肾功能：血肌酐升高，GFR降低。
+9. 白蛋白尿：白蛋白尿大于30 mg/24 h。
+10. 心电图：左心室肥厚、ST-T改变等。
+根据患者描述，该患者的年龄为50岁，收缩压为147 mmHg，舒张压为96 mmHg，心率74 bpm，实验室检查显示血钾浓度为4.0 mmol/L，血肌酐为60 μmol/L，白蛋白尿为70 mg/24h，GFR为100 ml/min*1.73/m²。
+根据上述信息，我们可以将患者的风险分层如下：
+- 年龄：50岁，属于中青年人群，风险相对较低。
+- 血压：收缩压和舒张压均偏高，但尚未达到极高危的标准。
+- 血脂：未提供血脂检查结果，无法判断。
+- 血糖：未提供血糖检查结果，无法判断。
+- 体重指数（BMI）：未提供，无法判断。
+- 吸烟：无吸烟史，风险相对较低。
+- 家族史：无家族病史记录，无法判断。
+- 肾功能：血肌酐轻度升高，但GFR正常，风险相对较低。
+- 白蛋白尿：白蛋白尿轻度升高，但未达到极高危标准。
+- 心电图：未提供心电图检查结果，无法判断。
+综上所述，该患者的风险分层可能为“高危”，因为其血压偏高且存在轻度肾功能异常和白蛋白尿。然而，由于缺乏一些关键检查结果（如血脂、血糖、心电图等），这个判断可能存在一定的局限性。最终的风险分层需要结合所有相关检查结果综合评估。</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1488,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、其他心血管危险因素的数量以及是否存在心血管疾病。
+在这个案例中，患者是一位50岁的女性，收缩压（SBP）为158 mmHg，舒张压（DBP）为94 mmHg，属于高血压范畴。患者有缺血性脑卒中的病史，这是心血管疾病的明确证据。此外，患者没有吸烟或饮酒的习惯，也没有其他心血管疾病的危险因素如糖尿病、高脂血症等。
+根据这些因素，我们可以将患者的心血管疾病危险因素进行分层。虽然患者有高血压和心血管疾病的历史，但考虑到她的年龄和血压水平，她可能不会立即面临严重的心血管疾病风险。然而，由于存在心血管疾病的历史，她的风险仍然相对较高。
+因此，根据上述信息，该患者的心血管疾病危险因素分层可能是“中危”。这意味着尽管存在一些风险因素，但患者的风险并不像“高危”或“很高危”那样高。
+所以，根据患者的描述，最合适的答案是：
+（A）中危</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1543,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、体重指数（BMI）、是否吸烟、是否饮酒、是否有糖尿病、是否有心血管疾病家族史等因素。
+对于这位50岁的男性患者，其收缩压（SBP）156 mmHg，舒张压（DBP）93 mmHg，属于高血压范畴；同时，患者有稳定性心绞痛的既往史，这属于心血管疾病。
+在《中国高血压防治指南2018》中，高血压合并稳定型心绞痛的患者通常被归类为高危或很高危。然而，由于缺乏关于患者年龄、血脂、血糖、体重指数（BMI）、是否吸烟、是否饮酒、是否有糖尿病、是否有心血管疾病家族史等详细信息的描述，我们无法准确进行危险因素分层。
+考虑到患者有稳定型心绞痛的既往史，我们可以初步判断该患者的心血管疾病风险较高。但是，为了更准确地评估其风险分层，我们需要更多的临床信息。
+因此，在没有完整信息的情况下，我们只能给出一个初步的判断：
+（B）高危
+然而，这个答案是基于患者有稳定型心绞痛这一事实，并不能代表患者真正的风险分层。如果患者有其他心血管疾病的危险因素，如高胆固醇、高血糖、肥胖、吸烟或饮酒等，那么他的风险分层可能会更高。</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1599,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑血压水平、其他心血管危险因素、靶器官损害以及并发症情况。
+对于这位59岁的女性患者，她的血压水平是收缩压158 mmHg，舒张压92 mmHg，属于高血压2级（高度危险）。
+患者有心肌梗死的病史，这属于严重的心血管事件，表明存在显著的心血管疾病风险。
+因此，根据上述信息，该患者的心血管疾病危险因素分层应为“很高危”。</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1652,10 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据年龄、血压水平、其他心血管疾病风险因素（如血脂异常、糖尿病、吸烟、肥胖等）以及是否存在其他心血管疾病（如冠心病、脑血管疾病等）。
+对于这位56岁的女性患者，她的血压水平（SBP 156 mmHg，DBP 92 mmHg）属于高血压范畴，并且存在慢性心力衰竭这一心血管疾病。尽管没有明确的糖尿病、吸烟、肥胖或其他心血管疾病风险因素的记录，但高血压本身就是一个重要的心血管疾病风险因素。
+此外，慢性心力衰竭是心血管疾病的一种，增加了患者发生其他心血管疾病的风险。因此，尽管患者没有其他明确的风险因素，但高血压和慢性心力衰竭的存在足以将她的心血管疾病风险分层定为较高。
+综上所述，该患者的心血管疾病危险因素分层应该属于“高危”。</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1705,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>（C）中危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+- 年龄：年龄越大，风险越高。
+- 血压：收缩压和/或舒张压高于正常范围。
+- 血脂异常：包括总胆固醇、低密度脂蛋白胆固醇（LDL-C）升高，或高密度脂蛋白胆固醇（HDL-C）降低。
+- 糖尿病：有糖尿病病史。
+- 吸烟：有吸烟史。
+- 肥胖：体重指数（BMI）大于28 kg/m²。
+- 家族史：有心血管疾病家族史。
+- 其他危险因素：如高血压、高血脂、糖尿病等。
+根据患者描述，患者为52岁女性，收缩压154 mmHg，舒张压93 mmHg，心率为64 bpm，实验室检查显示血钾浓度为4.0 mmol/L，血肌酐为62 μmol/L，无吸烟或饮酒史，无家族病史记录，既往有慢性HFrEF。
+根据这些因素，我们可以初步判断患者属于高危。然而，需要强调的是，最终的风险分层应由专业医生根据全面评估后确定，包括详细的临床评估和必要的辅助检查。</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1765,14 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据血压水平、其他心血管危险因素的数量以及靶器官损害情况。
+对于这位56岁的女性患者，她的收缩压（SBP）为147 mmHg，舒张压（DBP）为92 mmHg，属于高血压2级（高度）。此外，她有慢性心力衰竭（HFpEF）的病史，这是心脏结构或功能异常的一种表现，属于靶器官损害。
+根据这些因素，我们可以进行以下分析：
+1. 血压水平：147/92 mmHg，属于高血压2级（高度）。
+2. 靶器官损害：患者有慢性HFpEF，表明存在心脏结构或功能的异常。
+3. 其他心血管危险因素：患者没有吸烟或饮酒史，也没有家族病史，实验室检查显示血钾浓度为4.0 mmol/L，血肌酐为59 μmol/L，这些指标目前并不直接提示其他心血管危险因素的存在。
+综合以上分析，该患者的心血管疾病危险因素分层可能属于“高危”。然而，由于缺乏详细的其他心血管危险因素信息，如血脂水平、血糖水平等，我们无法做出更精确的判断。因此，最合适的答案是：
+（C）高危</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1822,9 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、体重指数（BMI）、是否吸烟、是否饮酒以及是否有其他心血管疾病风险因素（如高血压、糖尿病、高脂血症等）。
+对于这位56岁的女性患者，她的血压为148/92 mmHg，属于高血压范畴；同时，她有缺血性脑卒中的病史，这表明她有明确的心血管疾病历史。此外，超声检查显示狭窄率为86%，说明存在颅内大动脉粥样硬化性狭窄。
+因此，根据上述信息，我们可以将这位患者的心血管疾病危险因素分层为“很高危”。</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1874,10 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑血压水平、心脏结构与功能、肾功能、血糖控制以及是否存在其他心血管风险因素。
+对于这位46岁的女性患者，她的血压水平属于高血压（SBP 158 mmHg 和 DBP 96 mmHg），并且存在心脏结构异常（左心室射血分数 LVEF 为 30%），这通常意味着心脏泵血功能受损。此外，患者有慢性心力衰竭的病史，这也是心血管疾病的高危因素。
+根据上述信息，该患者的心血管疾病危险因素属于很高危。因此，正确的答案是：
+（B）很高危</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1927,10 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑的是患者的血压水平、其他心血管危险因素以及并发症情况。
+对于这位48岁的女性患者，她的收缩压（SBP）为157 mmHg，属于高血压3级（极高危组）；同时她有慢性心力衰竭的病史，这是心血管疾病的重要并发症。因此，根据这些因素，我们可以将这位患者的心血管疾病危险因素分层为“很高危”。
+所以，正确的答案是：
+（A）很高危</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1980,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、血压水平、血脂水平、血糖水平、是否吸烟、是否肥胖、是否有糖尿病、是否有肾功能不全等因素。
+在这个案例中，患者是一位56岁的男性，收缩压为158 mmHg，舒张压为93 mmHg，心率正常，无吸烟或饮酒史，无肥胖，无糖尿病，无肾功能不全，但血肌酐略高。
+根据这些因素，我们可以初步判断患者的心血管疾病风险属于中危到高危之间。然而，由于血肌酐偏高，这可能提示患者有轻度肾功能不全，这通常会增加心血管疾病的风险。因此，尽管患者的血压水平相对较高，但考虑到其他危险因素较少，我们可以将患者的危险分层定为中危。
+综上所述，根据患者的描述，最合适的选项是：
+（A）中危</t>
         </is>
       </c>
     </row>
@@ -1855,7 +2034,9 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、血压水平、血脂水平、血糖水平、吸烟史、糖尿病史、家族史等因素。
+对于这位54岁的男性患者，其血压水平为收缩压152 mmHg，舒张压98 mmHg，属于高血压范畴；同时，患者存在血肌酐升高，提示可能存在肾功能损害；此外，患者有白蛋白尿，这可能是糖尿病肾病或高血压肾病的表现。
+因此，根据上述信息，该患者的心血管疾病危险因素分层可能为“很高危”。</t>
         </is>
       </c>
     </row>
@@ -1905,7 +2086,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+- 年龄：45~59岁为中危；≥60岁为高危
+- 血压：1级高血压（140~159/90~99mmHg）为低危；2级高血压（160~179/100~109mmHg）为中危；3级高血压（≥180/110mmHg）为高危
+- 血糖：正常为低危；空腹血糖受损（6.1~6.9mmol/L）为中危；糖尿病（≥7.0mmol/L）为高危
+- 血脂：正常为低危；低密度脂蛋白胆固醇（LDL-C）升高为高危
+- 肾功能：正常为低危；轻度肾功能损害（血肌酐133~176μmol/L）为中危；重度肾功能损害（血肌酐≥177μmol/L）为高危
+- 血钾：正常为低危；高钾血症（≥5.5mmol/L）为高危
+- 白蛋白尿：正常为低危；轻度白蛋白尿（30~300mg/24h）为中危；重度白蛋白尿（≥300mg/24h）为高危
+根据上述标准，该患者49岁，属于中危范围。因此，正确答案是：
+（A）中危</t>
         </is>
       </c>
     </row>
@@ -1955,7 +2145,10 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病（CVD）的危险因素分层是基于多个因素的综合评估，包括年龄、性别、血压水平、血脂水平、血糖水平、吸烟史、糖尿病史、家族史等。
+对于这位43岁的男性患者，他的血压水平（SBP 147 mmHg，DBP 94 mmHg）已经属于高血压范畴，并且存在白蛋白尿（330 mg/24h），这通常提示可能存在肾脏损害，与高血压相关的微血管并发症风险增加。此外，他的血肌酐水平（128 μmol/L）虽然尚未达到肾功能不全的诊断标准，但高于正常范围，可能预示潜在的风险。
+考虑到患者没有吸烟或饮酒史，且没有糖尿病或其他心血管疾病的明确病史，我们可以初步判断他属于高血压的早期阶段。然而，由于存在白蛋白尿和轻度升高的血肌酐水平，他可能处于心血管疾病的中等风险层次。
+因此，根据上述分析，该患者的心血管疾病危险因素分层可能是“中危”。</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2198,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、其他心血管危险因素的数量以及是否存在并发症。
+对于这位44岁的男性患者，他的血压水平为收缩压158 mmHg和舒张压96 mmHg，属于高血压2级（高度）。此外，他存在以下心血管危险因素：
+- 白蛋白尿：12 mg/24h，表明可能存在肾脏损害，是心血管疾病的一个风险因素。
+- 血肌酐为320 μmol/L，超过了正常范围，提示肾功能受损，也是心血管疾病的一个风险因素。
+因此，根据这些危险因素，该患者可以归类为“高危”。
+所以，正确答案是（B）高危。</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2253,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、其他心血管危险因素以及并发症情况。
+对于这位54岁的男性患者，他的血压为收缩压152 mmHg，舒张压98 mmHg，属于高血压2级（高度危险）。同时，他存在血肌酐升高（&gt;=30%），这通常提示肾功能损害，也是心血管疾病的一个危险因素。此外，患者有白蛋白尿（12 mg/24h），这也是心血管疾病的危险因素之一。
+因此，结合患者的血压水平和存在的其他心血管危险因素，可以判断该患者的心血管疾病危险因素分层为“高危”。
+所以，正确答案是：
+（D）高危</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2307,10 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、性别、血压水平、血脂水平、血糖水平、是否合并其他心血管疾病风险因素等。
+对于这位44岁的男性患者，他的收缩压为158 mmHg，属于高血压范畴，且存在慢性心力衰竭和慢性肾病5期的病史，这些因素均增加了心血管疾病的风险。
+尽管患者没有吸烟或饮酒史，但慢性心力衰竭和慢性肾病5期本身就已经是心血管疾病的危险因素了。此外，患者正在进行血液透析，这可能意味着他的肾功能已经严重受损，这也是心血管疾病的一个风险因素。
+因此，根据上述信息，该患者的心血管疾病危险因素分层应该是“很高危”。</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2360,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、性别、血压水平、其他危险因素如血脂异常、糖尿病、吸烟、肥胖等以及是否存在心血管疾病史。
+对于这位44岁的男性患者，虽然存在高血压（收缩压158 mmHg，舒张压96 mmHg），但其他危险因素较少，且没有明确的心血管疾病史。同时，患者正在接受血液透析治疗，这可能会对血压产生影响。
+因此，根据上述信息，该患者可能属于中危层。然而，由于患者存在慢性心力衰竭和慢性肾病5期，这些因素可能会增加其心血管风险，使其风险分层更高。
+综上所述，根据患者提供的信息，初步判断该患者的心血管疾病危险因素分层可能是：
+（C）高危</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2414,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>（D）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+- 年龄：年龄越大，风险越高。
+- 血压水平：收缩压和/或舒张压高于正常范围。
+- 血脂水平：总胆固醇、低密度脂蛋白胆固醇、甘油三酯水平异常。
+- 血糖水平：空腹血糖、餐后血糖或糖化血红蛋白水平异常。
+- 体重指数（BMI）：BMI大于24 kg/m^2。
+- 吸烟史：有吸烟史。
+- 饮酒史：有饮酒史。
+- 家族史：有心血管疾病家族史。
+- 糖尿病史：有糖尿病。
+- 肾功能异常：血肌酐升高。
+- 血钾异常：血钾低于正常范围或高于正常范围。
+根据患者描述，患者年龄为55岁，收缩压和舒张压均高于正常范围，有糖尿病史，无其他明确的心血管疾病危险因素（如吸烟、饮酒、肥胖、血脂异常等）。因此，根据上述危险因素，该患者应属于中危层。
+所以，根据患者描述，该患者的心血管疾病危险因素分层是（C）中危。</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2477,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 年龄：年龄越大，风险越高。
+2. 血压水平：收缩压和舒张压均越高，风险越高。
+3. 血脂水平：总胆固醇、低密度脂蛋白胆固醇、甘油三酯水平越高，风险越高。
+4. 血糖水平：空腹血糖和糖化血红蛋白水平越高，风险越高。
+5. 体重指数（BMI）：BMI越高，风险越高。
+6. 吸烟史：有吸烟史，风险越高。
+7. 饮酒史：饮酒量越多，风险越高。
+8. 家族史：有心血管疾病家族史，风险越高。
+9. 其他危险因素：如高血压、糖尿病、高脂血症、肥胖等。
+根据上述信息，该患者为52岁男性，有糖尿病和严重冠心病病史，收缩压和舒张压均偏高，但无其他具体血脂、血糖、体重指数等信息，因此无法准确评估其心血管疾病的具体危险分层。
+然而，考虑到患者有糖尿病和严重冠心病病史，这些因素通常会增加心血管疾病的危险性。因此，根据提供的信息，我们可以初步判断该患者可能处于中危或高危的风险分层。
+综上所述，根据患者描述，该患者的心血管疾病危险因素分层可能是：
+（C）中危</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2540,18 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+- 年龄：男性≥55岁，女性≥65岁；
+- 血压：收缩压≥160 mmHg 和/或 舒张压≥100 mmHg；
+- 血脂异常：总胆固醇≥6.22 mmol/L，低密度脂蛋白胆固醇(LDL-C)≥4.14 mmol/L，高密度脂蛋白胆固醇(HDL-C)≤1.0 mmol/L，甘油三酯(TG)≥2.22 mmol/L；
+- 糖尿病：空腹血糖≥7.0 mmol/L，或糖化血红蛋白(HbA1c)≥6.5%；
+- 吸烟：目前吸烟者；
+- 家族史：一级亲属中有早发心血管病史（男&lt;55岁，女&lt;65岁）；
+- 体重指数(BMI)：≥28 kg/m^2；
+- 男性≥40岁，女性绝经期后≥50岁；
+- 慢性肾脏病：血肌酐≥133 μmol/L。
+根据上述标准，该患者具有糖尿病和冠心病病史，属于心血管疾病的危险因素。同时，她的血压值也高于正常范围，因此可以初步判断为高危。
+所以，根据上述分析，该患者的心血管疾病危险因素分层是（B）高危。</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2601,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖以及是否存在其他心血管疾病风险因素。
+对于这位55岁的患者，其收缩压（SBP）为152 mmHg，超过了140 mmHg的标准，属于高血压；同时，患者有糖尿病和高尿酸血症，这些都是心血管疾病的风险因素。
+然而，由于缺乏具体的血脂水平和血糖控制情况，我们无法直接进行危险因素分层。通常，如果患者存在高血压、糖尿病、高血脂、吸烟、肥胖等风险因素，会被归类为高风险。
+根据患者的情况，我们可以初步判断患者存在高血压和糖尿病，这两个因素本身就可以将患者的风险分级为高危。但考虑到缺乏血脂和血糖的具体数值，我们只能给出一个初步的判断。
+因此，基于上述信息，我会选择（A）高危作为该患者的心血管疾病危险因素分层。</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2655,18 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+- 年龄：年龄越大，风险越高。
+- 血压水平：收缩压和/或舒张压高于正常范围。
+- 血脂异常：如总胆固醇、低密度脂蛋白胆固醇升高，高密度脂蛋白胆固醇降低。
+- 血糖异常：如空腹血糖、餐后血糖升高，糖尿病。
+- 体重指数（BMI）：BMI≥28 kg/m²为超重，BMI≥30 kg/m²为肥胖。
+- 吸烟：目前吸烟者。
+- 饮酒：每日饮酒量男性≥14单位，女性≥7单位。
+- 家族史：有早发心血管疾病家族史。
+- 其他危险因素：如高血压、糖尿病、血脂异常等。
+根据患者描述，患者年龄55岁，血压156/93 mmHg，心率75 bpm，实验室检查血钾4.0 mmol/L，血肌酐65 μmol/L，有糖尿病病史，无吸烟或饮酒史，无家族病史记录，无手术史。
+综合以上信息，该患者的心血管疾病危险因素分层可能为“中危”。</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2716,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、体重指数（BMI）以及是否合并其他心血管疾病风险因素。
+根据患者描述，患者年龄为55岁，收缩压（SBP）156 mmHg，舒张压（DBP）93 mmHg，心率75 bpm，有糖尿病和前列腺增生，但无吸烟或饮酒史记录，无家族病史记录。
+根据这些数据，我们可以进行以下分析：
+1. 年龄：55岁，属于中年人群，属于心血管疾病的高发年龄段。
+2. 血压：收缩压156 mmHg，舒张压93 mmHg，属于高血压范畴，且属于2级高血压（根据《中国高血压防治指南2018》，2级高血压定义为收缩压≥160 mmHg和/或舒张压≥100 mmHg）。
+3. 糖尿病：糖尿病患者心血管疾病风险增加。
+4. 前列腺增生：与心血管疾病风险无关。
+5. 体重指数（BMI）：未提供，无法评估。
+6. 血脂、血糖：未提供具体数值，无法评估。
+7. 生活方式：无吸烟或饮酒史记录，可能有助于降低心血管疾病风险。
+8. 家族史：无家族病史记录，意味着没有遗传性心血管疾病风险。
+综合以上分析，该患者的心血管疾病危险因素包括：
+- 高血压（2级）
+- 糖尿病
+根据《中国高血压防治指南2018》，2级高血压合并糖尿病的患者属于很高危层。因此，对于这位患者，最合适的危险因素分层是：
+（B）很高危</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2781,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病（CVD）的危险因素分层是根据患者的年龄、血压水平、其他心血管风险因素（如血脂异常、糖尿病、吸烟、肥胖等）以及是否存在其他心血管疾病病史来综合评估的。
+对于这位75岁的男性患者，他的收缩压（SBP）为145 mmHg，属于高血压范畴，并且他年龄较大，因此属于心血管疾病的高危人群。尽管没有提供其他心血管风险因素的信息，但仅凭年龄和血压水平，我们可以初步判断该患者的心血管疾病风险较高。
+然而，由于缺乏关于其他心血管风险因素的具体信息，我们无法准确地将患者归类为“很高危”、“中危”、“高危”或“低危”。在实际情况中，医生会综合考虑所有可用的信息，包括患者的年龄、血压、血脂水平、血糖水平、体重指数（BMI）、是否吸烟或饮酒、是否有糖尿病或其他心血管疾病病史等因素，以确定其心血管疾病的具体风险分层。
+综上所述，根据提供的患者信息和《中国高血压防治指南2018》，我们只能初步判断该患者可能属于心血管疾病的高危人群，但不能确定是“很高危”、“中危”、“高危”还是“低危”。因此，在没有更多信息的情况下，最合适的答案是：
+（C）高危</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2835,10 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、性别、血压值、血脂水平、血糖水平、是否吸烟、是否肥胖以及是否存在其他心血管疾病风险因素等因素综合评估。
+根据患者描述的信息，患者为66岁男性，收缩压（SBP）138 mmHg，舒张压（DBP）88 mmHg。虽然患者有高血压，但血压值并未达到很高危的标准，且没有其他心血管疾病的风险因素。因此，根据《中国高血压防治指南2018》，该患者的心血管疾病危险因素分层可能属于低危或中危。
+然而，由于缺乏关于患者血脂水平、血糖水平、是否吸烟、是否肥胖以及其他心血管疾病风险因素的具体信息，我们无法做出更准确的判断。因此，在没有额外信息的情况下，我们只能根据现有信息进行初步判断。
+综上所述，根据患者描述的信息，我们可以初步判断该患者的心血管疾病危险因素分层为低危或中危。</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2890,9 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>（B）低危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压水平、其他心血管危险因素的数量以及是否存在靶器官损害。对于82岁的男性患者，由于年龄较大，即使没有明确的其他心血管危险因素，其心血管风险也较高。
+根据患者的描述，患者有高血压（SBP 155 mmHg，DBP 92 mmHg），但缺乏其他心血管危险因素的信息（如吸烟、糖尿病、血脂异常等）和靶器官损害的证据。因此，根据指南，该患者可能属于中危或高危。然而，考虑到患者年龄较大，即使没有其他明确的风险因素，其心血管疾病的风险也可能被归类为高危。
+因此，根据患者的年龄和血压水平，结合缺乏其他心血管危险因素和靶器官损害的信息，我倾向于选择（A）高危作为该患者的心血管疾病危险因素分层。</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2942,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、性别、血压水平、其他心血管危险因素的数量以及是否存在心血管疾病病史等因素。
+对于78岁的男性患者，由于年龄较大，属于高风险人群。尽管他的血压水平（SBP 155 mmHg）较高，但考虑到他目前的心率（71 bpm），可以认为他的心率相对较低，这可能意味着他的心脏负担较轻。此外，他的血钾浓度正常（4.0 mmol/L），血肌酐水平也正常（70 μmol/L），没有糖尿病或其他心血管疾病的风险因素。
+因此，根据上述信息，该患者可能被归类为“低危”或“中危”。然而，由于缺乏其他心血管危险因素和心血管疾病病史的信息，我们倾向于将该患者归类为“低危”。
+所以，根据患者的描述，初步的答案是：
+（B）低危</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2996,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病（CVD）的危险因素分层是基于多个因素的综合评估，包括年龄、性别、血压水平、其他相关危险因素如血脂异常、血糖异常、吸烟、肥胖等。
+根据患者描述，患者年龄为55岁，收缩压（SBP）147 mmHg，舒张压（DBP）95 mmHg，心率73 bpm，存在高血压问题。此外，患者有糖尿病足，这通常与长期高血糖状态有关，可能增加心血管风险。虽然患者没有吸烟或饮酒史，但糖尿病本身就是一个重要的CVD危险因素。
+根据上述信息，我们可以初步判断该患者属于中危或高危。具体分类需要结合其他危险因素，例如血脂、血糖水平以及是否存在其他心血管疾病的危险因素。
+然而，由于缺乏关于血脂、血糖水平的具体数据，以及是否还有其他心血管疾病的危险因素（如吸烟、肥胖等）的信息，我们无法做出更准确的分类。因此，根据目前提供的信息，最合适的答案是：
+（B）中危</t>
         </is>
       </c>
     </row>
@@ -2757,7 +3050,9 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、血压水平、其他相关危险因素如血脂、血糖、尿蛋白等。
+患者为57岁男性，收缩压157 mmHg，舒张压96 mmHg，属于高血压范畴。同时，餐后血糖14.0 mmol/L，血钾4.0 mmol/L，血肌酐23 μmol/L，白蛋白尿56 mg/24h，这些指标均提示患者存在心血管疾病的风险因素。
+结合上述信息，该患者的心血管疾病危险因素分层可能为“高危”。因此，最合适的选项是（B）高危。</t>
         </is>
       </c>
     </row>
@@ -2807,7 +3102,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 年龄：年龄越大，风险越高。
+2. 血压水平：收缩压和舒张压都高，风险越高。
+3. 血脂异常：包括总胆固醇、低密度脂蛋白胆固醇、甘油三酯升高，以及高密度脂蛋白胆固醇降低。
+4. 糖尿病：有糖尿病或糖耐量受损。
+5. 肥胖：体重指数(BMI)≥28 kg/m^2。
+6. 吸烟：有吸烟史。
+7. 家族史：有早发心血管疾病家族史。
+8. 其他：如高血压合并左心室肥厚、蛋白尿等。
+根据患者描述，该患者的收缩压和舒张压均高于正常范围，存在白蛋白尿（340 mg/24h），餐后2h血糖和空腹血糖均偏高，血肌酐也偏高，这些指标均提示患者可能存在心血管疾病的危险因素。
+因此，根据上述因素，该患者的心血管疾病危险因素分层可能属于“高危”或“很高危”。具体需要结合其他相关检查结果，如血脂、血糖、体重指数等，以及患者的整体健康状况，才能做出更准确的评估。</t>
         </is>
       </c>
     </row>
@@ -2857,7 +3162,10 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、其他相关危险因素以及并发症情况。
+对于这位57岁的患者，其收缩压为148 mmHg，属于高血压2级（极高危组）；同时，患者有糖尿病肾病，这是心血管疾病的另一个重要危险因素。因此，根据这些因素，我们可以将患者的心血管疾病危险因素分层定为“很高危”。
+选项：
+（A）很高危</t>
         </is>
       </c>
     </row>
@@ -2907,7 +3215,18 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>（B）很高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病（CVD）的危险因素分层是根据患者的年龄、血压、血脂、血糖、肾功能、吸烟、肥胖、男性性别以及家族史等因素综合评估的。
+根据患者描述，我们可以分析如下：
+1. 年龄：59岁，属于中老年人群，属于心血管疾病的发病高风险年龄段。
+2. 血压：收缩压144 mmHg，舒张压97 mmHg，属于高血压范畴。
+3. 血糖：餐后2小时血糖10.0 mmol/L，空腹血糖7.6 mmol/L，属于糖尿病范畴。
+4. 白蛋白尿：144 mg/24h，表明存在肾脏损害，与高血压和糖尿病密切相关。
+5. 血肌酐：44 μmol/L，虽然在这个值上还不能明确判断肾功能不全的程度，但结合白蛋白尿，可以认为存在肾功能损害。
+6. 吸烟和饮酒史：无吸烟或饮酒史记录，这是一个保护性因素。
+7. 肥胖：无肥胖史记录，无法判断。
+8. 家族史：无家族病史记录，无法判断。
+根据以上分析，该患者具有高血压、糖尿病、肾功能损害等心血管疾病危险因素，因此属于很高危层。
+所以，根据《中国高血压防治指南2018》，该患者的心血管疾病危险因素分层应为“（B）很高危”。</t>
         </is>
       </c>
     </row>
@@ -2957,7 +3276,9 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、血压水平、血脂水平、血糖水平以及是否合并其他心血管疾病的风险因素。
+对于这位78岁的男性患者，虽然他的血压水平（SBP 155 mmHg，DBP 93 mmHg）属于高血压范畴，但考虑到他的年龄较大，且没有其他心血管疾病的风险因素如糖尿病、高血脂等，我们可以认为他的风险相对较低。
+因此，根据上述信息，该患者的心血管疾病危险因素分层应该是“低危”。</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3328,10 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、血压水平、其他危险因素（如血脂异常、糖尿病、吸烟、肥胖等）以及靶器官损害情况。
+对于这位84岁的男性患者，虽然他的血压水平较高（SBP 167 mmHg 和 DBP 93 mmHg），但考虑到他的年龄，这属于正常老年人群体的血压范围。此外，他无其他心血管疾病危险因素，如血脂异常、糖尿病、吸烟、肥胖等，也无靶器官损害的证据。因此，根据上述信息，该患者的心血管疾病风险相对较低。
+综上所述，该患者的心血管疾病危险因素分层为：
+（C）低危</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3381,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>（B）中危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据的是年龄、性别、血压、血脂、血糖以及是否伴有其他心血管疾病的风险因素。
+根据患者描述的信息：
+- 患者年龄为57岁，属于中年人群；
+- 患者收缩压（SBP）为143 mmHg，舒张压（DBP）为96 mmHg，属于高血压范畴；
+- 患者体质指数（BMI）为30.0 kg/m²，属于超重范围；
+- 患者低密度脂蛋白胆固醇（LDL-C）为4.8 mmol/L，总胆固醇为6.3 mmol/L，均高于正常值；
+- 患者血钾浓度为3.8 mmol/L，略高；
+- 患者血肌酐为28 μmol/L，处于正常范围内；
+- 患者有稳定性心绞痛的病史；
+- 患者无吸烟或饮酒史记录；
+- 患者无家族病史记录。
+综合以上信息，患者存在高血压、血脂异常（LDL-C升高）、体重超标等心血管疾病危险因素。虽然患者有稳定性心绞痛的病史，但根据指南，心绞痛并不直接决定危险因素的分层，而是需要结合其他危险因素。
+因此，根据《中国高血压防治指南2018》，该患者的危险因素分层可能属于中危至高危之间。具体分类需要进一步评估患者的心血管风险，包括其他危险因素如血糖水平、是否有糖尿病、是否有吸烟饮酒等不良生活习惯等。
+考虑到上述因素，初步判断该患者的心血管疾病危险因素分层为（B）中危。</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3444,28 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 血压水平：收缩压≥140mmHg和/或舒张压≥90mmHg。
+2. 血脂异常：包括高胆固醇、高甘油三酯、低HDL-C等。
+3. 糖尿病：空腹血糖≥7.0mmol/L或餐后2小时血糖≥11.1mmol/L。
+4. 肾功能损害：血肌酐≥133μmol/L。
+5. 血钾升高：血钾≥5.5mmol/L。
+6. 年龄：男性≥55岁，女性≥65岁。
+7. 吸烟：目前吸烟者。
+8. 饮酒：每天饮酒量男性≥15g纯酒精，女性≥10g纯酒精。
+9. 肥胖：BMI≥28kg/m^2。
+10. 缺乏体力活动：每周&lt;3次中等强度体力活动，每次&lt;30分钟。
+11. 心血管疾病史：包括冠心病、心肌梗死、心力衰竭、脑血管疾病、外周动脉疾病等。
+12. 家族史：一级亲属中有早发心血管病（男性&lt;55岁，女性&lt;65岁）史。
+根据患者描述的信息，我们可以进行如下分析：
+- 患者收缩压148mmHg，舒张压92mmHg，属于高血压。
+- 患者有慢性心力衰竭，属于心血管疾病史。
+- 患者空腹血糖6.4mmol/L，餐后2小时血糖10.0mmol/L，属于糖尿病。
+- 患者LDL-C为3.6mmol/L，总胆固醇为6.6mmol/L，属于血脂异常。
+- 患者血肌酐为32μmol/L，血钾为3.8mmol/L，属于肾功能损害。
+根据上述分析，患者具有多个心血管疾病的危险因素，包括高血压、糖尿病、血脂异常、肾功能损害以及心力衰竭。因此，根据《中国高血压防治指南2018》的标准，该患者的心血管疾病危险因素分层属于“很高危”。
+所以，根据患者的描述，正确答案是：
+（A）很高危</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3515,13 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病（CVD）的危险分层是基于多个因素的综合评估，包括年龄、性别、血压水平、血脂水平、血糖水平、是否吸烟、是否有糖尿病或肾病等。
+对于这位84岁的男性患者，他的收缩压（SBP）为186 mmHg，属于3级高血压（严重高血压），而舒张压（DBP）为54 mmHg，属于低血压。尽管他的血压水平异常，但考虑到他的年龄和血压水平，他可能处于高血压的晚期阶段，此时心脏和血管可能已经遭受了长期的损伤。
+此外，他的血钾浓度为4.0 mmol/L，略低于正常范围（通常为3.5-5.0 mmol/L），这可能与他的血压异常有关，也可能与他的年龄有关，因为随着年龄的增长，肾脏对钾的重吸收能力可能会降低。然而，这个值并不一定表明有严重的健康问题。
+他的血肌酐为70 μmol/L，这个值在正常范围内，但考虑到他的年龄，这个值可能是正常的。
+由于他没有吸烟或饮酒的习惯，也没有糖尿病或肾病的记录，因此这些因素不会增加他的CVD风险。
+综上所述，这位患者虽然血压水平高，但由于没有其他明显的CVD危险因素，如糖尿病、高血脂、吸烟或家族病史，他可能被分类为CVD的低危或中危层次。然而，由于他的血压水平非常高，他应该被归类为CVD的高危人群，需要密切监测和管理以预防可能的并发症。
+因此，根据上述分析，我倾向于选择（C）高危作为该患者的心血管疾病危险因素分层。</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3571,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>（C）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 年龄：年龄越大，风险越高。
+2. 血压水平：收缩压≥160 mmHg 和/或 舒张压≥100 mmHg 属于高危。
+3. 血脂异常：低密度脂蛋白胆固醇（LDL-C）≥4.9 mmol/L 属于高危。
+4. 糖尿病：糖尿病患者属于高危。
+5. 吸烟：吸烟者属于高危。
+6. 肥胖：体重指数（BMI）≥28 kg/m^2 属于高危。
+7. 家族史：有家族性高血压、糖尿病、高脂血症等病史的患者属于高危。
+8. 其他危险因素：如年龄、性别、种族、职业、饮食、体重、腰臀比、缺乏体力活动、心理因素等。
+根据患者描述，患者年龄为56岁，收缩压为148 mmHg，舒张压为92 mmHg，心率为72 bpm，血钾为4.0 mmol/L，血肌酐为46 μmol/L，超声检查显示狭窄率为54%，有缺血性脑卒中和颅内大动脉粥样硬化性狭窄的既往史。
+根据上述信息，患者属于高危。因此，正确答案是（A）高危。</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3631,10 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>（A）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压、血脂、血糖水平以及是否存在其他心血管疾病的风险因素。
+对于这位50岁的男性患者，其收缩压为156 mmHg，属于高血压范畴，且存在稳定性心绞痛的既往史，这表示患者已经存在心血管疾病。此外，患者没有吸烟或饮酒的习惯，无家族病史，无手术史，这些因素通常被视为心血管疾病的保护性因素。
+根据上述信息，我们可以初步判断该患者的心血管疾病危险因素分层为“很高危”。这是因为尽管患者存在高血压，但其他风险因素相对较低，因此不能归入“高危”或“中危”类别。同时，由于患者有稳定型心绞痛的病史，这增加了其心血管疾病的风险，因此可以归类为“很高危”。
+综上所述，该患者的心血管疾病危险因素分层是（B）很高危。</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3684,17 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 年龄：年龄越大，风险越高。
+2. 血压水平：收缩压和/或舒张压越高，风险越高。
+3. 血脂异常：总胆固醇、低密度脂蛋白胆固醇、甘油三酯升高，高密度脂蛋白胆固醇降低，风险越高。
+4. 糖尿病：存在糖尿病，风险增高。
+5. 吸烟：吸烟者风险高于非吸烟者。
+6. 肥胖：体重指数（BMI）≥28 kg/m²，风险增高。
+7. 家族史：有家族性高血压、糖尿病、高脂血症等病史，风险增高。
+8. 其他危险因素：如年龄、性别、种族、职业、饮食习惯、缺乏运动等。
+根据患者描述，该患者的年龄为43岁，有糖尿病，血压偏高（SBP 147 mmHg，DBP 94 mmHg），且存在白蛋白尿（330 mg/24h），这表明可能存在肾脏损害。因此，根据这些危险因素，该患者应属于心血管疾病的高危风险群体。
+综合以上信息，初步判断该患者的心血管疾病危险因素分层为“高危”。</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3744,18 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑的是血压水平、其他相关危险因素以及并发症情况。对于这位44岁的男性患者，他的血压水平属于高血压（收缩压158 mmHg，舒张压96 mmHg），同时他患有慢性肾病5期，正在进行透析治疗。
+在《中国高血压防治指南2018》中，高血压合并以下任一危险因素或并发症时，被归类为高危：
+- 糖尿病
+- 高胆固醇血症
+- 吸烟
+- 肥胖
+- 家族史
+- 年龄≥55岁
+- 慢性肾病
+由于患者有慢性肾病5期的并发症，并且正在进行透析治疗，因此他符合高危的条件。
+综上所述，该患者的心血管疾病危险因素分层是：
+（B）高危</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3805,16 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>（C）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑以下因素：
+1. 年龄：年龄越大，风险越高。
+2. 血压水平：血压越高，风险越高。
+3. 血脂水平：总胆固醇、低密度脂蛋白胆固醇（LDL-C）越高，风险越高。
+4. 血糖水平：血糖越高，风险越高。
+5. 体重指数（BMI）：BMI越高，风险越高。
+6. 吸烟史：有吸烟史，风险增高。
+7. 家族史：有家族性高血压、糖尿病、高脂血症等病史，风险增高。
+8. 其他危险因素：如长期精神压力过大、缺乏运动等。
+根据患者描述，患者年龄50岁，血压147/96 mmHg，属于高血压范畴；实验室检查显示血钾浓度正常，血肌酐正常，24小时尿液检查显示白蛋白尿浓度为70 mg/24h，GFR为100.0 ml/min*1.73/m²，表明肾功能正常；无吸烟或饮酒史记录，无家族病史记录，无其他危险因素记录。因此，根据上述因素，该患者的心血管疾病危险因素分层应为“中危”。</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3864,9 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>（A）很高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要考虑年龄、血压水平、其他危险因素以及并发症情况。
+对于这位50岁的患者，其收缩压为147 mmHg，属于高血压范畴；同时，患者有糖尿病，这是心血管疾病的重要危险因素之一。尽管患者没有吸烟或饮酒史，但糖尿病本身就是一个重要的危险因素。此外，患者没有家族病史和个人史记录，因此无法从家族史和个人史方面进行风险评估。
+根据上述信息，我们可以初步判断该患者的心血管疾病危险因素分层为“中危”。这是因为虽然患者存在高血压和糖尿病这两个重要危险因素，但尚未达到“很高危”的标准，同时也没有明显的并发症，如心肌梗死、心力衰竭等，因此不能归入“高危”或“很高危”。</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3916,21 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>根据《中国高血压防治指南2018》，心血管疾病的危险因素分层主要依据血压水平、其他心血管危险因素的数量以及靶器官损害情况。
+患者年龄为50岁，属于中青年人群，但存在以下危险因素：
+- 收缩压（SBP）147 mmHg，高于正常范围（140 mmHg），属于高血压范畴；
+- 舒张压（DBP）96 mmHg，处于正常范围内；
+- 心率74 bpm，属于正常范围；
+- 实验室检查显示肾小球滤过率（GFR）为50.0 ml/min/1.73 m²，低于正常范围（男性约90 ml/min/1.73 m²，女性约80 ml/min/1.73 m²），存在肾脏损害；
+- 白蛋白尿为70 mg/24h，属于微量白蛋白尿，提示肾脏损伤；
+- 血钾浓度为4.0 mmol/L，属于正常范围；
+- 血肌酐为80 μmol/L，属于正常范围；
+- 有糖尿病肾病病史；
+- 无吸烟或饮酒史记录；
+- 无家族病史记录。
+根据上述信息，该患者具有高血压、糖尿病肾病等心血管危险因素，且存在肾脏损害。因此，根据《中国高血压防治指南2018》，该患者应被归类为心血管疾病的高危风险。
+所以，根据患者的描述，该患者的心血管疾病危险因素分层为：
+（B）高危</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3980,9 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>（B）高危</t>
+          <t>在《中国高血压防治指南2018》中，心血管疾病的危险因素分层主要依据年龄、血压、血脂、血糖、体重指数（BMI）、是否吸烟以及是否有心血管疾病家族史等因素。
+对于这位44岁的男性患者，他的血压属于高血压（SBP 158 mmHg，DBP 96 mmHg），并且有慢性心力衰竭和慢性肾病5期的病史。虽然他目前无吸烟或饮酒史，但患有慢性心力衰竭和慢性肾病5期，这通常意味着他的心脏和肾脏功能已经受到损害，增加了心血管疾病的风险。
+根据这些因素，我们可以将患者的心血管疾病危险因素分层为“高危”。因此，最合适的答案是（B）高危。</t>
         </is>
       </c>
     </row>
